--- a/excel sheet link up with powerpoint/presentation.xlsx
+++ b/excel sheet link up with powerpoint/presentation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,99 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Sl No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age </t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Akram</t>
+  </si>
+  <si>
+    <t>Satkhira</t>
+  </si>
+  <si>
+    <t>Babul</t>
+  </si>
+  <si>
+    <t>Khulna</t>
+  </si>
+  <si>
+    <t>Chanchal</t>
+  </si>
+  <si>
+    <t>Jesssore</t>
+  </si>
+  <si>
+    <t>Dipa</t>
+  </si>
+  <si>
+    <t>Bagerhat</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Rangpur</t>
+  </si>
+  <si>
+    <t>Farhan</t>
+  </si>
+  <si>
+    <t>Pabna</t>
+  </si>
+  <si>
+    <t>Goni</t>
+  </si>
+  <si>
+    <t>Rajshahi</t>
+  </si>
+  <si>
+    <t>Halim</t>
+  </si>
+  <si>
+    <t>Sirajgonj</t>
+  </si>
+  <si>
+    <t>Imran</t>
+  </si>
+  <si>
+    <t>Natore</t>
+  </si>
+  <si>
+    <t>Jahid</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,15 +130,1883 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$8:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Akram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Age </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>District</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$9:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Babul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Age </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>District</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$10:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chanchal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Age </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>District</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$11:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dipa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Age </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>District</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76755</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$12:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Age </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>District</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98989</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$13:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Farhan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Age </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>District</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23343</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$14:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Goni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Age </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>District</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43323</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$15:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Halim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Age </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>District</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Imran</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Age </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>District</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56799</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$17:$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jahid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Age </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>District</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76543</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="795116000"/>
+        <c:axId val="795121440"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="795116000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795121440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795121440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795116000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="E7" t="str">
+            <v xml:space="preserve">Age </v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>Salary</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>District</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>Akram</v>
+          </cell>
+          <cell r="E8">
+            <v>30</v>
+          </cell>
+          <cell r="F8">
+            <v>70000</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>Satkhira</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>2</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Babul</v>
+          </cell>
+          <cell r="E9">
+            <v>39</v>
+          </cell>
+          <cell r="F9">
+            <v>34999</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>Khulna</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>3</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Chanchal</v>
+          </cell>
+          <cell r="E10">
+            <v>48</v>
+          </cell>
+          <cell r="F10">
+            <v>78999</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>Jesssore</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>4</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>Dipa</v>
+          </cell>
+          <cell r="E11">
+            <v>37</v>
+          </cell>
+          <cell r="F11">
+            <v>76755</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>Bagerhat</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>5</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>Elias</v>
+          </cell>
+          <cell r="E12">
+            <v>48</v>
+          </cell>
+          <cell r="F12">
+            <v>98989</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>Rangpur</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>6</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>Farhan</v>
+          </cell>
+          <cell r="E13">
+            <v>48</v>
+          </cell>
+          <cell r="F13">
+            <v>23343</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>Pabna</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>7</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>Goni</v>
+          </cell>
+          <cell r="E14">
+            <v>60</v>
+          </cell>
+          <cell r="F14">
+            <v>43323</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>Rajshahi</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>8</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Halim</v>
+          </cell>
+          <cell r="E15">
+            <v>40</v>
+          </cell>
+          <cell r="F15">
+            <v>80999</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>Sirajgonj</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>9</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>Imran</v>
+          </cell>
+          <cell r="E16">
+            <v>89</v>
+          </cell>
+          <cell r="F16">
+            <v>56799</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>Natore</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>10</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>Jahid</v>
+          </cell>
+          <cell r="E17">
+            <v>56</v>
+          </cell>
+          <cell r="F17">
+            <v>76543</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>Dhaka</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="G7:K17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="G7:K17"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Sl No" dataDxfId="4"/>
+    <tableColumn id="2" name="Name" dataDxfId="3"/>
+    <tableColumn id="3" name="Age " dataDxfId="2"/>
+    <tableColumn id="4" name="Salary" dataDxfId="1"/>
+    <tableColumn id="5" name="District" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +2052,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +2087,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +2295,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G7:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2">
+        <v>70000</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>39</v>
+      </c>
+      <c r="J9" s="2">
+        <v>34999</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2">
+        <v>78999</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2">
+        <v>76755</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1">
+        <v>48</v>
+      </c>
+      <c r="J12" s="2">
+        <v>98989</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2">
+        <v>23343</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43323</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2">
+        <v>80999</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1">
+        <v>89</v>
+      </c>
+      <c r="J16" s="2">
+        <v>56799</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1">
+        <v>56</v>
+      </c>
+      <c r="J17" s="2">
+        <v>76543</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J8:J17">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+      <formula>$L$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+      <formula>" $L$7"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+      <formula>90000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
+      <formula>80000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
+      <formula>70000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
+      <formula>80000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>